--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_31.xlsx
@@ -480,8 +480,10 @@
           <t>Required Level of Met Demand</t>
         </is>
       </c>
-      <c r="B4" t="n">
-        <v>0</v>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
       </c>
     </row>
     <row r="5">
@@ -501,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2367327.475354382</v>
+        <v>2471507.109805455</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283179</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9287017.175673174</v>
+        <v>9287017.175673176</v>
       </c>
     </row>
     <row r="11">
@@ -707,25 +709,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>23.79925355567413</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>201.66221878632</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -783,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098397</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -820,10 +822,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>145.3838291253161</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -832,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -865,25 +867,25 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>69.42642470280676</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -902,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -911,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>183.1642512458432</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -944,19 +946,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>255.8403303884465</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1060,10 +1062,10 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>25.52788899531101</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
@@ -1072,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,10 +1107,10 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>150.2062474346973</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -1117,10 +1119,10 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1130,7 +1132,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -1151,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>5.246717585354383</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,7 +1189,7 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -1196,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>243.2391485592454</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -1227,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.8172186824774</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1257,10 +1259,10 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.142909873409792</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S9" t="n">
-        <v>128.1435076414546</v>
+        <v>128.1435076414547</v>
       </c>
       <c r="T9" t="n">
         <v>190.7165703189231</v>
@@ -1294,22 +1296,22 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>96.42228968410114</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,28 +1338,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004732</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>130.7976098817776</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -1385,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444137</v>
+        <v>283.154082144414</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,16 +1423,16 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881275</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717412</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1531,22 +1533,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1579,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>176.76214411214</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1667,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1762,22 +1764,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>93.40444476188276</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
@@ -1810,16 +1812,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>104.4564809702492</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1853,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1898,7 +1900,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U17" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
         <v>327.7522584701349</v>
@@ -2002,25 +2004,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>40.67793690094114</v>
       </c>
       <c r="D19" t="n">
-        <v>27.02919805176115</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2065,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2129,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576182</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2141,7 +2143,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W20" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X20" t="n">
         <v>369.731100678469</v>
@@ -2245,19 +2247,19 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>27.02919805176115</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2296,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>286.522998336591</v>
+        <v>189.5765270689842</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2366,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2491,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>107.4021082756243</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,10 +2560,10 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206824</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722623</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
@@ -2603,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2712,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>28.75188085812005</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2731,7 +2733,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2779,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>218.5846533520948</v>
+        <v>194.7535669655216</v>
       </c>
     </row>
     <row r="29">
@@ -2840,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2953,22 +2955,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>18.16423677622421</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2995,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3004,7 +3006,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3044,7 +3046,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444141</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3077,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3089,7 +3091,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W32" t="n">
-        <v>349.2409687174118</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X32" t="n">
         <v>369.731100678469</v>
@@ -3190,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>156.523885790703</v>
       </c>
       <c r="H34" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179482</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3314,13 +3316,13 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695439</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576173</v>
       </c>
       <c r="U35" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V35" t="n">
         <v>327.7522584701349</v>
@@ -3424,7 +3426,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3469,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>123.797182079703</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3551,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3676,7 +3678,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428168</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3706,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3755,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444144</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3788,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3800,7 +3802,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W41" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X41" t="n">
         <v>369.731100678469</v>
@@ -3901,22 +3903,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>20.88994825141578</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>146.185049953102</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4025,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4034,7 +4036,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V44" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W44" t="n">
         <v>349.240968717413</v>
@@ -4132,19 +4134,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
         <v>165.5241382922688</v>
@@ -4180,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>112.3470522562629</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>194.9085394018866</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4325,52 +4327,52 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3325.605821609171</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3325.605821609171</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="W2" t="n">
-        <v>3325.605821609171</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="X2" t="n">
-        <v>3121.906610713899</v>
+        <v>2731.767278738087</v>
       </c>
       <c r="Y2" t="n">
         <v>2731.767278738087</v>
@@ -4383,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D3" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4413,7 +4415,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
@@ -4440,7 +4442,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
         <v>1779.608347199865</v>
@@ -4449,10 +4451,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y3" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="4">
@@ -4462,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>629.1078027362229</v>
+        <v>627.5394227759724</v>
       </c>
       <c r="C4" t="n">
-        <v>460.171619808316</v>
+        <v>458.6032398480655</v>
       </c>
       <c r="D4" t="n">
-        <v>310.0549803959803</v>
+        <v>311.7508871962311</v>
       </c>
       <c r="E4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="F4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>163.837793613838</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4513,25 +4515,25 @@
         <v>1837.464090846021</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1837.464090846021</v>
       </c>
       <c r="T4" t="n">
-        <v>1645.778206672847</v>
+        <v>1615.697475415547</v>
       </c>
       <c r="U4" t="n">
-        <v>1575.65050495284</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="V4" t="n">
-        <v>1320.966016746953</v>
+        <v>1326.59460854119</v>
       </c>
       <c r="W4" t="n">
-        <v>1031.548846709993</v>
+        <v>1037.177438504229</v>
       </c>
       <c r="X4" t="n">
-        <v>1031.548846709993</v>
+        <v>809.1878876062121</v>
       </c>
       <c r="Y4" t="n">
-        <v>810.7562675664626</v>
+        <v>809.1878876062121</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1959.379186075721</v>
+        <v>2232.598233480554</v>
       </c>
       <c r="C5" t="n">
-        <v>1590.416669135309</v>
+        <v>1863.635716540142</v>
       </c>
       <c r="D5" t="n">
-        <v>1232.150970528558</v>
+        <v>1505.370017933391</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>1119.581765335147</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>708.5958605455396</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>293.5234103905361</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296685</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="V5" t="n">
-        <v>2994.5429342656</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="W5" t="n">
-        <v>2736.118358115654</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="X5" t="n">
-        <v>2736.118358115654</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="Y5" t="n">
-        <v>2345.979026139843</v>
+        <v>2619.198073544675</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811095</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999825</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387314</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332758</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601609</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927789</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064576</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031484</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158141</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125858</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619338</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431609</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501178</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="7">
@@ -4699,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>725.2707086397594</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C7" t="n">
-        <v>556.3345257118525</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D7" t="n">
-        <v>406.2178862995167</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E7" t="n">
-        <v>406.2178862995167</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>310.0549803959802</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218342</v>
+        <v>163.837793613838</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4753,22 +4755,22 @@
         <v>1645.778206672847</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="U7" t="n">
-        <v>1134.908724368016</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="V7" t="n">
-        <v>1134.908724368016</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="W7" t="n">
-        <v>1134.908724368016</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="X7" t="n">
-        <v>906.9191734699991</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y7" t="n">
-        <v>906.9191734699991</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="8">
@@ -4778,31 +4780,31 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2303.170539913434</v>
+        <v>2308.470254646115</v>
       </c>
       <c r="C8" t="n">
-        <v>1934.208022973022</v>
+        <v>1939.507737705703</v>
       </c>
       <c r="D8" t="n">
-        <v>1575.942324366272</v>
+        <v>1581.242039098953</v>
       </c>
       <c r="E8" t="n">
-        <v>1190.154071768027</v>
+        <v>1195.453786500708</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>784.467881711101</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>369.3954315560974</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218342</v>
+        <v>71.8118311648646</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
         <v>589.2106210810555</v>
@@ -4814,40 +4816,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q8" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="U8" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="V8" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="W8" t="n">
-        <v>3325.605821609171</v>
+        <v>3072.075344883006</v>
       </c>
       <c r="X8" t="n">
-        <v>3079.909711953368</v>
+        <v>2698.609586621927</v>
       </c>
       <c r="Y8" t="n">
-        <v>2689.770379977556</v>
+        <v>2308.470254646115</v>
       </c>
     </row>
     <row r="9">
@@ -4872,19 +4874,19 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031473</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L9" t="n">
         <v>765.1517452158128</v>
@@ -4893,10 +4895,10 @@
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4936,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>725.2707086397598</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="C10" t="n">
-        <v>725.2707086397598</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="D10" t="n">
-        <v>575.1540692274241</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="E10" t="n">
-        <v>575.1540692274241</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="F10" t="n">
-        <v>477.7578170212613</v>
+        <v>331.5406302391191</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="H10" t="n">
         <v>163.8377936138381</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279955</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764916</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760407</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N10" t="n">
-        <v>1317.747152581906</v>
+        <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1645.778206672848</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1424.011591242373</v>
+        <v>1795.17575022811</v>
       </c>
       <c r="U10" t="n">
-        <v>1134.908724368017</v>
+        <v>1506.072883353754</v>
       </c>
       <c r="V10" t="n">
-        <v>1134.908724368017</v>
+        <v>1251.388395147867</v>
       </c>
       <c r="W10" t="n">
-        <v>1134.908724368017</v>
+        <v>961.9712251109063</v>
       </c>
       <c r="X10" t="n">
-        <v>906.9191734699996</v>
+        <v>733.9816742128889</v>
       </c>
       <c r="Y10" t="n">
-        <v>906.9191734699996</v>
+        <v>513.1890950693588</v>
       </c>
     </row>
     <row r="11">
@@ -5018,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5027,10 +5029,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362688</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
@@ -5042,25 +5044,25 @@
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075821</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014781</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355939</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5072,10 +5074,10 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
         <v>3467.980956852889</v>
@@ -5118,28 +5120,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>577.3880777468471</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M12" t="n">
-        <v>1174.766565373399</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>1814.118720444889</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C13" t="n">
-        <v>344.9174178121643</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D13" t="n">
-        <v>344.9174178121643</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E13" t="n">
-        <v>344.9174178121643</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F13" t="n">
-        <v>344.9174178121643</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G13" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5227,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="14">
@@ -5270,49 +5272,49 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
         <v>3467.980956852889</v>
@@ -5349,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797186</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E16" t="n">
-        <v>411.9631215597619</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F16" t="n">
-        <v>411.9631215597619</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
@@ -5458,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2091.550948547922</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1836.866460342035</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1547.449290305074</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>1319.459739407057</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="17">
@@ -5495,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5507,16 +5509,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332386</v>
@@ -5528,34 +5530,34 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5586,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797186</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L18" t="n">
-        <v>315.9123021921482</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M18" t="n">
-        <v>913.2907898187001</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
         <v>2516.421633107662</v>
@@ -5647,28 +5649,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D19" t="n">
-        <v>317.6151975578601</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F19" t="n">
-        <v>317.6151975578601</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
@@ -5713,10 +5715,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703109</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5729,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5738,55 +5740,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I20" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.41387069471</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852258</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398596</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492581</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
         <v>3467.980956852889</v>
@@ -5814,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797186</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1186.520756890282</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="N21" t="n">
-        <v>1814.118720444889</v>
+        <v>1344.266747951537</v>
       </c>
       <c r="O21" t="n">
-        <v>2366.028450684176</v>
+        <v>1896.176478190824</v>
       </c>
       <c r="P21" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>866.4638174991043</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853369</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580268</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832671</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487575</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510516</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1688.385853854714</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1496.894412370891</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>1268.904861472874</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>1048.112282329344</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.773653616862</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111718</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6002,37 +6004,37 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6051,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,25 +6062,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.5840502527391</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N24" t="n">
-        <v>1859.536823237711</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O24" t="n">
         <v>1859.536823237711</v>
@@ -6121,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.012762333092</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797193</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2338.476105524075</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="26">
@@ -6203,7 +6205,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6288,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6297,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="L27" t="n">
-        <v>776.1751066403293</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M27" t="n">
-        <v>1373.553594266881</v>
+        <v>949.9304447718132</v>
       </c>
       <c r="N27" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>2963.443938819527</v>
       </c>
       <c r="C28" t="n">
-        <v>484.8112968429803</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="D28" t="n">
-        <v>484.8112968429803</v>
+        <v>2794.50775589162</v>
       </c>
       <c r="E28" t="n">
-        <v>484.8112968429803</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>2646.594662309227</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>2479.398563024107</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>2337.686731866305</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>2417.922750296629</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>2679.612012822168</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>3070.010606998108</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>3492.020309729143</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>3909.430181389151</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>4278.959462098136</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>4571.634917671695</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>4623.787448650996</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>4440.932614305901</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>4221.331149328842</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>3932.25592267304</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>3677.571434467153</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>3388.154264430193</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>3160.164713532175</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>2963.443938819527</v>
       </c>
     </row>
     <row r="29">
@@ -6449,37 +6451,37 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6549,13 +6551,13 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1700.311647517213</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>802.9288273958739</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>633.992644467967</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121643</v>
+        <v>483.8760050556313</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121643</v>
+        <v>335.9629114732381</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121643</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270443</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1722.776592304622</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.359422267661</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.369871369644</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>984.5772922261136</v>
       </c>
     </row>
     <row r="32">
@@ -6677,7 +6679,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
         <v>1590.547811004713</v>
@@ -6686,55 +6688,55 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.830887436269</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
         <v>3467.980956852889</v>
@@ -6762,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6771,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
-        <v>542.9134462654469</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="M33" t="n">
-        <v>1140.291933891999</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N33" t="n">
-        <v>1767.889897446606</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O33" t="n">
-        <v>2319.799627685893</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>1089.575996120531</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>920.6398131926237</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>770.5231737802879</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>622.6100801978948</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>475.7201326999844</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>2009.423761029278</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1720.006590992318</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1492.0170400943</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>1271.22446095077</v>
       </c>
     </row>
     <row r="35">
@@ -6929,52 +6931,52 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S35" t="n">
         <v>4606.285157492579</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
         <v>3094.515198591809</v>
@@ -6999,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="38">
@@ -7148,46 +7150,46 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7205,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7248,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1373.553594266881</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N39" t="n">
-        <v>2001.151557821488</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O39" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270443</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7330,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7390,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D41" t="n">
         <v>1590.547811004713</v>
@@ -7397,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362692</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7448,10 +7450,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7485,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O42" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P42" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q42" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121643</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D43" t="n">
-        <v>323.8164599824514</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E43" t="n">
-        <v>175.9033664000583</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F43" t="n">
-        <v>175.9033664000583</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="44">
@@ -7637,31 +7639,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7713,40 +7715,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568978</v>
+        <v>314.2396613568977</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028057</v>
+        <v>178.4809954028056</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797182</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273899</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>409.1360811687896</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L45" t="n">
-        <v>904.4616873845483</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M45" t="n">
-        <v>1501.8401750111</v>
+        <v>680.0291294438171</v>
       </c>
       <c r="N45" t="n">
-        <v>2129.438138565707</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2129.438138565707</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>3112.537432147379</v>
+        <v>2815.530845237131</v>
       </c>
       <c r="C46" t="n">
-        <v>2943.601249219472</v>
+        <v>2646.594662309224</v>
       </c>
       <c r="D46" t="n">
-        <v>2793.484609807137</v>
+        <v>2646.594662309224</v>
       </c>
       <c r="E46" t="n">
-        <v>2793.484609807137</v>
+        <v>2646.594662309224</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309226</v>
+        <v>2646.594662309224</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024106</v>
+        <v>2479.398563024104</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866302</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866304</v>
+        <v>2337.686731866302</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296628</v>
+        <v>2417.922750296626</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822167</v>
+        <v>2679.612012822164</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998107</v>
+        <v>3070.010606998104</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729142</v>
+        <v>3492.020309729139</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.43018138915</v>
+        <v>3909.430181389147</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098135</v>
+        <v>4278.959462098132</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671694</v>
+        <v>4571.634917671691</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398591</v>
       </c>
       <c r="R46" t="n">
-        <v>4690.833152398593</v>
+        <v>4623.787448650993</v>
       </c>
       <c r="S46" t="n">
-        <v>4507.978318053498</v>
+        <v>4440.932614305897</v>
       </c>
       <c r="T46" t="n">
-        <v>4394.496447087576</v>
+        <v>4221.331149328838</v>
       </c>
       <c r="U46" t="n">
-        <v>4105.421220431774</v>
+        <v>3932.255922673036</v>
       </c>
       <c r="V46" t="n">
-        <v>3850.736732225887</v>
+        <v>3735.378610145878</v>
       </c>
       <c r="W46" t="n">
-        <v>3561.319562188926</v>
+        <v>3445.961440108917</v>
       </c>
       <c r="X46" t="n">
-        <v>3333.330011290909</v>
+        <v>3217.9718892109</v>
       </c>
       <c r="Y46" t="n">
-        <v>3112.537432147379</v>
+        <v>2997.17931006737</v>
       </c>
     </row>
   </sheetData>
@@ -23419,22 +23421,22 @@
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23467,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>40.64330621514821</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23650,22 +23652,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>72.11969353038609</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -23698,16 +23700,16 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>112.9489693570391</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23890,25 +23892,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>126.5688841976867</v>
       </c>
       <c r="D19" t="n">
-        <v>121.5862749664512</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23953,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24133,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24184,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>0</v>
+        <v>96.94647126760682</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24379,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>110.0033420516639</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24598,16 +24600,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24619,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24667,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>0</v>
+        <v>23.83108638657316</v>
       </c>
     </row>
     <row r="29">
@@ -24841,22 +24843,22 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>127.256811246707</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24892,7 +24894,7 @@
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25078,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>9.000252501565797</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.2291039219422</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25330,7 +25332,7 @@
         <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25360,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>57.22910392194156</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25564,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194221</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25789,22 +25791,22 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>127.7255247667966</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,10 +25839,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>139.9994244361422</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26020,19 +26022,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
         <v>0</v>
@@ -26041,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>105.0583980710254</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>57.22910392194137</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630149</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="13">
@@ -26235,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
   </sheetData>
@@ -26311,13 +26313,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.3716448194</v>
+        <v>636307.37164482</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448197</v>
+        <v>636307.3716448195</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
@@ -26326,31 +26328,31 @@
         <v>625538.614759755</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.614759755</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.6147597551</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="L2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597552</v>
       </c>
       <c r="M2" t="n">
         <v>625538.6147597547</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="O2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26372,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073549</v>
+        <v>325412.4618073556</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26381,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>3.581440068955999e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972775</v>
+        <v>217531.2023972773</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,49 +26417,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.842883194</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319401</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="G4" t="n">
-        <v>13606.80811184279</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="H4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="I4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
-        <v>13606.8081118428</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="M4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184269</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893165.1575273605</v>
+        <v>-893165.15752736</v>
       </c>
       <c r="C6" t="n">
-        <v>435579.5882002321</v>
+        <v>435579.588200232</v>
       </c>
       <c r="D6" t="n">
         <v>435579.5882002325</v>
       </c>
       <c r="E6" t="n">
-        <v>185396.81501665</v>
+        <v>185396.8150166494</v>
       </c>
       <c r="F6" t="n">
         <v>510809.2768240051</v>
       </c>
       <c r="G6" t="n">
-        <v>510809.2768240047</v>
+        <v>510809.2768240051</v>
       </c>
       <c r="H6" t="n">
         <v>510809.2768240048</v>
       </c>
       <c r="I6" t="n">
-        <v>510809.2768240049</v>
+        <v>510809.2768240051</v>
       </c>
       <c r="J6" t="n">
-        <v>293278.0744267274</v>
+        <v>293278.0744267279</v>
       </c>
       <c r="K6" t="n">
         <v>510809.2768240049</v>
       </c>
       <c r="L6" t="n">
-        <v>510809.2768240049</v>
+        <v>510809.2768240054</v>
       </c>
       <c r="M6" t="n">
         <v>425754.248888493</v>
       </c>
       <c r="N6" t="n">
+        <v>510809.276824005</v>
+      </c>
+      <c r="O6" t="n">
+        <v>510809.2768240049</v>
+      </c>
+      <c r="P6" t="n">
         <v>510809.2768240051</v>
-      </c>
-      <c r="O6" t="n">
-        <v>510809.276824005</v>
-      </c>
-      <c r="P6" t="n">
-        <v>510809.276824005</v>
       </c>
     </row>
   </sheetData>
@@ -26741,7 +26743,7 @@
         <v>1089.776700593298</v>
       </c>
       <c r="D3" t="n">
-        <v>1089.776700593299</v>
+        <v>1089.776700593298</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26805,22 +26807,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26966,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483752</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26975,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27009,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27027,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022921</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27255,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973556</v>
+        <v>341.3068326973558</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27273,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>6.821210263296962e-13</v>
       </c>
     </row>
   </sheetData>
@@ -27427,25 +27429,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>303.9530049144608</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>168.0688818921491</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27540,10 +27542,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>3.231643892896301</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
@@ -27552,7 +27554,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27585,25 +27587,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>216.7854135028061</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27622,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>111.4435131414773</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,19 +27666,19 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>93.40063832896649</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27780,10 +27782,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>119.8931590276202</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -27792,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,10 +27827,10 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>69.34270184147189</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
@@ -27837,10 +27839,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27850,7 +27852,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -27871,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292592</v>
+        <v>36.33021218757163</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,13 +27903,13 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27916,7 +27918,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>126.4919521192237</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -28014,19 +28016,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>48.9987583388301</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -28056,28 +28058,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>88.75133939439164</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -28852,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>0</v>
+        <v>-2.160049916710705e-12</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -28998,7 +29000,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>7.164165557090503e-12</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -30037,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>-1.250555214937776e-12</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31513,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681599</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
-        <v>371.832905495399</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003812</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623195</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574996</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095025</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099061</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746415</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781691</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R8" t="n">
-        <v>275.198736356357</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806954</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T8" t="n">
-        <v>19.17787942451121</v>
+        <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345279</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502567</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H9" t="n">
-        <v>22.63856881798532</v>
+        <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.7051613175226</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026431</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353158</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138797</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233476</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837926</v>
+        <v>609.6478166837935</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970251</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002928</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
-        <v>145.5365940905542</v>
+        <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238317</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898499</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31671,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
-        <v>17.4721575931188</v>
+        <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.0980545174202</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702025</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316433</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883116</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086002</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
-        <v>237.678511880217</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q10" t="n">
-        <v>164.5562817895881</v>
+        <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712217</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553037</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112298</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31838,31 +31840,31 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>302.5540177178169</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>424.0909547148531</v>
       </c>
       <c r="P12" t="n">
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,10 +32077,10 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32087,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32239,7 +32241,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162557</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
         <v>965.6463440175675</v>
@@ -32309,19 +32311,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>227.8611086463993</v>
       </c>
       <c r="L18" t="n">
-        <v>362.8934092184361</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,7 +32335,7 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
         <v>182.6892564418561</v>
@@ -32461,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>414.644818552487</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P21" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q21" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32779,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N24" t="n">
-        <v>322.6999460717714</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>339.3493584601592</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>506.566534435233</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33050,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33181,34 +33183,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
@@ -33263,22 +33265,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>576.0573465136306</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33287,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33490,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>441.0292693655512</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>244.0266243181827</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33964,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>326.7634969305194</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>366.8427442359099</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175661</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>240.4469701760385</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R42" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067218</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34438,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>456.3459017226598</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>581.3243739860823</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35170,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687127</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554006</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923323</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302269</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882193</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P8" t="n">
-        <v>398.761986219372</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037196</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222484</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597635</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609568</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340056</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013293</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004593</v>
+        <v>478.3061046004602</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525807</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859626</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35328,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306625</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
-        <v>319.7573721701982</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934839</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675402</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451105</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789368</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35486,31 +35488,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>171.2123056344836</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>281.4947102704086</v>
       </c>
       <c r="P12" t="n">
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35723,10 +35725,10 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35735,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35887,7 +35889,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462684</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
         <v>735.3001107902948</v>
@@ -35957,19 +35959,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>90.01966967204031</v>
       </c>
       <c r="L18" t="n">
-        <v>224.339029438562</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,7 +35983,7 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
         <v>37.00975247789211</v>
@@ -36115,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>272.5107846304687</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P21" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066322</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36352,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N24" t="n">
-        <v>191.358233988438</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,25 +36673,25 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>200.7949786802851</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>364.4325005132147</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36914,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>433.4611020691861</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36987,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37144,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>302.474889585677</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
-        <v>603.4126137641938</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>439.1903400640639</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37616,34 +37618,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>188.9220579561604</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>235.5010321525766</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902934</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37862,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>101.8925903961643</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
-        <v>0</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R42" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236315857</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>318.5044627483008</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>439.190340064064</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>0</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2471507.109805455</v>
+        <v>2467494.499791462</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283179</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>9287017.175673176</v>
+        <v>9287017.175673174</v>
       </c>
     </row>
     <row r="11">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>23.79925355567413</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>9.099573361141621</v>
       </c>
     </row>
     <row r="3">
@@ -822,19 +822,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>145.3838291253161</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
         <v>96.35242040983809</v>
@@ -864,28 +864,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>203.1977700471494</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>77.97736515780183</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,7 +913,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>183.1642512458432</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>41.57692977292595</v>
@@ -952,10 +952,10 @@
         <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -1074,7 +1074,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>13.02719212039631</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>150.2062474346973</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1153,7 +1153,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>5.246717585354383</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>38.18739105194257</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1192,16 +1192,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1293,25 +1293,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>131.3542190999261</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983812</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1344,10 +1344,10 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>130.7976098817776</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -1356,7 +1356,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1387,7 +1387,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.154082144414</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1420,13 +1420,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881275</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
@@ -1530,13 +1530,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>104.8913819999782</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1545,10 +1545,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1581,13 +1581,13 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>176.76214411214</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1764,19 +1764,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1818,10 +1818,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>104.4564809702492</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
         <v>252.137643323828</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>40.67793690094114</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2013,7 +2013,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>286.1844743892441</v>
+        <v>253.2918698186439</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576182</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2247,16 +2247,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2298,10 +2298,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
-        <v>189.5765270689842</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
         <v>225.7096553890372</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2377,7 +2377,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V23" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701346</v>
       </c>
       <c r="W23" t="n">
         <v>349.240968717413</v>
@@ -2493,10 +2493,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2529,10 +2529,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>107.4021082756243</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2563,10 +2563,10 @@
         <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>114.9322208041654</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2781,7 +2781,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
-        <v>194.7535669655216</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="29">
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2961,16 +2961,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>18.16423677622421</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,13 +2997,13 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>217.4054503272883</v>
+        <v>105.6507867899569</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444141</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,22 +3192,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>156.523885790703</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428169</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,16 +3234,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
         <v>252.137643323828</v>
@@ -3316,10 +3316,10 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
-        <v>199.0222304576173</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U35" t="n">
         <v>250.9057009881286</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3678,10 +3678,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>147.6895341487364</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3757,7 +3757,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444144</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>100.5858322992699</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,16 +3945,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>146.185049953102</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4194,7 +4194,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>194.9085394018866</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,34 +4306,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>2345.167438673965</v>
+        <v>1689.318139675982</v>
       </c>
       <c r="C2" t="n">
-        <v>1976.204921733553</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912088</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,10 +4342,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4354,28 +4354,28 @@
         <v>3266.588755052368</v>
       </c>
       <c r="R2" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2731.767278738087</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>2731.767278738087</v>
+        <v>1689.318139675982</v>
       </c>
     </row>
     <row r="3">
@@ -4406,7 +4406,7 @@
         <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.1893859228007</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>627.5394227759724</v>
+        <v>1091.613680441807</v>
       </c>
       <c r="C4" t="n">
-        <v>458.6032398480655</v>
+        <v>922.6774975139006</v>
       </c>
       <c r="D4" t="n">
-        <v>311.7508871962311</v>
+        <v>772.5608581015648</v>
       </c>
       <c r="E4" t="n">
-        <v>163.837793613838</v>
+        <v>624.6477645191717</v>
       </c>
       <c r="F4" t="n">
-        <v>163.837793613838</v>
+        <v>477.7578170212613</v>
       </c>
       <c r="G4" t="n">
-        <v>163.837793613838</v>
+        <v>310.0549803959803</v>
       </c>
       <c r="H4" t="n">
-        <v>163.837793613838</v>
+        <v>163.8377936138381</v>
       </c>
       <c r="I4" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1615.697475415547</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V4" t="n">
-        <v>1326.59460854119</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="W4" t="n">
-        <v>1037.177438504229</v>
+        <v>1722.044275313594</v>
       </c>
       <c r="X4" t="n">
-        <v>809.1878876062121</v>
+        <v>1494.054724415577</v>
       </c>
       <c r="Y4" t="n">
-        <v>809.1878876062121</v>
+        <v>1273.262145272047</v>
       </c>
     </row>
     <row r="5">
@@ -4543,28 +4543,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2232.598233480554</v>
+        <v>2038.144201386631</v>
       </c>
       <c r="C5" t="n">
-        <v>1863.635716540142</v>
+        <v>1669.18168444622</v>
       </c>
       <c r="D5" t="n">
-        <v>1505.370017933391</v>
+        <v>1310.915985839469</v>
       </c>
       <c r="E5" t="n">
-        <v>1119.581765335147</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F5" t="n">
-        <v>708.5958605455396</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G5" t="n">
-        <v>293.5234103905361</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
         <v>255.3912473912088</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
         <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136265</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520487</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3009.337405520487</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W5" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X5" t="n">
-        <v>3009.337405520487</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="Y5" t="n">
-        <v>2619.198073544675</v>
+        <v>2424.744041450753</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811095</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999825</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387314</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332758</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601609</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927789</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064583</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228006</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031484</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158141</v>
       </c>
       <c r="M6" t="n">
-        <v>1212.428070438129</v>
+        <v>1212.42807043813</v>
       </c>
       <c r="N6" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O6" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P6" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q6" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R6" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125858</v>
       </c>
       <c r="S6" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619338</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297193</v>
       </c>
       <c r="U6" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431609</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199866</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471664</v>
       </c>
       <c r="X6" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y6" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501178</v>
       </c>
     </row>
     <row r="7">
@@ -4701,28 +4701,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959802</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>163.837793613838</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
         <v>111.634748879119</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="T7" t="n">
-        <v>1494.054724415577</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="U7" t="n">
-        <v>1494.054724415577</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="V7" t="n">
-        <v>1494.054724415577</v>
+        <v>1914.135768168901</v>
       </c>
       <c r="W7" t="n">
-        <v>1494.054724415577</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1494.054724415577</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2308.470254646115</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="C8" t="n">
-        <v>1939.507737705703</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="D8" t="n">
-        <v>1581.242039098953</v>
+        <v>1617.939223126803</v>
       </c>
       <c r="E8" t="n">
-        <v>1195.453786500708</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>784.467881711101</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>369.3954315560974</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>71.8118311648646</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J8" t="n">
         <v>255.3912473912092</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810555</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.60582160917</v>
+        <v>3287.032699334482</v>
       </c>
       <c r="T8" t="n">
-        <v>3325.60582160917</v>
+        <v>3287.032699334482</v>
       </c>
       <c r="U8" t="n">
-        <v>3072.075344883006</v>
+        <v>3033.502222608318</v>
       </c>
       <c r="V8" t="n">
-        <v>3072.075344883006</v>
+        <v>2702.439335264748</v>
       </c>
       <c r="W8" t="n">
-        <v>3072.075344883006</v>
+        <v>2349.670679994633</v>
       </c>
       <c r="X8" t="n">
-        <v>2698.609586621927</v>
+        <v>1976.204921733553</v>
       </c>
       <c r="Y8" t="n">
-        <v>2308.470254646115</v>
+        <v>1976.204921733553</v>
       </c>
     </row>
     <row r="9">
@@ -4859,46 +4859,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387305</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927781</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064554</v>
       </c>
       <c r="I9" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158128</v>
+        <v>765.1517452158131</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4916,7 +4916,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>331.5406302391191</v>
+        <v>980.7518458718754</v>
       </c>
       <c r="C10" t="n">
-        <v>331.5406302391191</v>
+        <v>811.8156629439685</v>
       </c>
       <c r="D10" t="n">
-        <v>331.5406302391191</v>
+        <v>661.6990235316327</v>
       </c>
       <c r="E10" t="n">
-        <v>331.5406302391191</v>
+        <v>513.7859299492396</v>
       </c>
       <c r="F10" t="n">
-        <v>331.5406302391191</v>
+        <v>366.8959824513292</v>
       </c>
       <c r="G10" t="n">
-        <v>163.8377936138381</v>
+        <v>199.1931458260482</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I10" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J10" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L10" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O10" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P10" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1795.17575022811</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1506.072883353754</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1251.388395147867</v>
+        <v>1672.610059882606</v>
       </c>
       <c r="W10" t="n">
-        <v>961.9712251109063</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="X10" t="n">
-        <v>733.9816742128889</v>
+        <v>1383.192889845645</v>
       </c>
       <c r="Y10" t="n">
-        <v>513.1890950693588</v>
+        <v>1162.400310702115</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,40 +5029,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362688</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075821</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332389</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014781</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355939</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5074,7 +5074,7 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
         <v>3820.749612123003</v>
@@ -5117,31 +5117,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5175,25 +5175,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
@@ -5229,22 +5229,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2018.514925172274</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>2018.514925172274</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1729.097755135313</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,31 +5354,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1859.536823237711</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C16" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D16" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E16" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5466,22 +5466,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T16" t="n">
-        <v>2091.550948547922</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U16" t="n">
-        <v>2091.550948547922</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V16" t="n">
-        <v>1836.866460342035</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W16" t="n">
-        <v>1547.449290305074</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X16" t="n">
-        <v>1319.459739407057</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y16" t="n">
-        <v>1098.667160263527</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="17">
@@ -5497,10 +5497,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
         <v>793.7736536168611</v>
@@ -5512,22 +5512,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5594,28 +5594,28 @@
         <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>184.7035232280589</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>680.0291294438176</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,16 +5649,16 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>741.8431516380886</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C19" t="n">
-        <v>700.7543264856228</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D19" t="n">
-        <v>550.637687073287</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E19" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F19" t="n">
         <v>402.7245934908939</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>2191.112710026075</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X19" t="n">
-        <v>1144.284195611858</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y19" t="n">
-        <v>923.4916164683283</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="20">
@@ -5731,7 +5731,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
         <v>1590.547811004713</v>
@@ -5740,61 +5740,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,31 +5825,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L21" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M21" t="n">
-        <v>1344.266747951537</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N21" t="n">
-        <v>1344.266747951537</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O21" t="n">
-        <v>1896.176478190824</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P21" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>866.4638174991043</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>2327.764848853369</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580268</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832671</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487575</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510516</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854714</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V22" t="n">
-        <v>1688.385853854714</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W22" t="n">
-        <v>1496.894412370891</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>1268.904861472874</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y22" t="n">
-        <v>1048.112282329344</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="23">
@@ -5968,31 +5968,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6004,25 +6004,25 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
         <v>3820.749612123003</v>
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,34 +6062,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.5840502527391</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>874.8686257536381</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C25" t="n">
-        <v>705.9324428257312</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D25" t="n">
-        <v>555.8158034133954</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E25" t="n">
-        <v>407.9027098310023</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F25" t="n">
-        <v>261.012762333092</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G25" t="n">
-        <v>93.81666304797193</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T25" t="n">
-        <v>2338.476105524075</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U25" t="n">
-        <v>2049.400878868273</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V25" t="n">
-        <v>1794.716390662386</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W25" t="n">
-        <v>1505.299220625425</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X25" t="n">
-        <v>1277.309669727408</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y25" t="n">
-        <v>1056.517090583878</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="26">
@@ -6205,13 +6205,13 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,55 +6220,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6290,7 +6290,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E27" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F27" t="n">
         <v>314.2396613568978</v>
@@ -6299,28 +6299,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>589.1422692637307</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>949.9304447718132</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1577.52840832642</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>2963.443938819527</v>
+        <v>869.6905094135296</v>
       </c>
       <c r="C28" t="n">
-        <v>2794.50775589162</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D28" t="n">
-        <v>2794.50775589162</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E28" t="n">
-        <v>2646.594662309227</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>2646.594662309227</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>2479.398563024107</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>2337.686731866305</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>2417.922750296629</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>2679.612012822168</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>3070.010606998108</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
-        <v>3492.020309729143</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>3909.430181389151</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>4278.959462098136</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>4571.634917671695</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>4690.833152398594</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>4623.787448650996</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>4440.932614305901</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T28" t="n">
-        <v>4221.331149328842</v>
+        <v>2160.315914855604</v>
       </c>
       <c r="U28" t="n">
-        <v>3932.25592267304</v>
+        <v>2044.222762528164</v>
       </c>
       <c r="V28" t="n">
-        <v>3677.571434467153</v>
+        <v>1789.538274322277</v>
       </c>
       <c r="W28" t="n">
-        <v>3388.154264430193</v>
+        <v>1500.121104285317</v>
       </c>
       <c r="X28" t="n">
-        <v>3160.164713532175</v>
+        <v>1272.131553387299</v>
       </c>
       <c r="Y28" t="n">
-        <v>2963.443938819527</v>
+        <v>1051.338974243769</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111701</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,25 +6539,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1072.713683962606</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>1700.311647517213</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>802.9288273958739</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>633.992644467967</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>483.8760050556313</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>335.9629114732381</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>317.6151975578601</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="U31" t="n">
-        <v>1977.461080510509</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V31" t="n">
-        <v>1722.776592304622</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W31" t="n">
-        <v>1433.359422267661</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X31" t="n">
-        <v>1205.369871369644</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y31" t="n">
-        <v>984.5772922261136</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.830887436269</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,34 +6773,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>579.1554649516144</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>1089.575996120531</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>920.6398131926237</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D34" t="n">
-        <v>770.5231737802879</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E34" t="n">
-        <v>622.6100801978948</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F34" t="n">
-        <v>475.7201326999844</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578601</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2264.108249235165</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>2264.108249235165</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>2009.423761029278</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W34" t="n">
-        <v>1720.006590992318</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X34" t="n">
-        <v>1492.0170400943</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y34" t="n">
-        <v>1271.22446095077</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="35">
@@ -6925,46 +6925,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
         <v>4405.252601474784</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7001,7 +7001,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7010,34 +7010,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>245.2306927803938</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G37" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7150,19 +7150,19 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
         <v>379.8308874362683</v>
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>653.7474797708871</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1828.279732885522</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1573.595244679635</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1284.178074642674</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>1056.188523744657</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>835.3959446011269</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7487,31 +7487,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>680.0291294438171</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>874.8686257536381</v>
+        <v>763.7541388327643</v>
       </c>
       <c r="C43" t="n">
-        <v>705.9324428257312</v>
+        <v>594.8179559048574</v>
       </c>
       <c r="D43" t="n">
-        <v>555.8158034133954</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>444.7013164925216</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>277.5052172074016</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2197.062545487568</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U43" t="n">
-        <v>2049.400878868273</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V43" t="n">
-        <v>1794.716390662386</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W43" t="n">
-        <v>1505.299220625425</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X43" t="n">
-        <v>1277.309669727408</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y43" t="n">
-        <v>1056.517090583878</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192451</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111701</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
         <v>3640.422291068009</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7715,40 +7715,40 @@
         <v>460.7742193300128</v>
       </c>
       <c r="F45" t="n">
-        <v>314.2396613568977</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G45" t="n">
-        <v>178.4809954028056</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797182</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273899</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803937</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>245.2306927803937</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438171</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>2815.530845237131</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>2646.594662309224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D46" t="n">
-        <v>2646.594662309224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E46" t="n">
-        <v>2646.594662309224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F46" t="n">
-        <v>2646.594662309224</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G46" t="n">
-        <v>2479.398563024104</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H46" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
-        <v>2337.686731866302</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>2417.922750296626</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>2679.612012822164</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>3070.010606998104</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
-        <v>3492.020309729139</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>3909.430181389147</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>4278.959462098132</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
-        <v>4571.634917671691</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>4690.833152398591</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>4623.787448650993</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>4440.932614305897</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>4221.331149328838</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>3932.255922673036</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>3735.378610145878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>3445.961440108917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>3217.9718892109</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>2997.17931006737</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23418,13 +23418,13 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>62.35543909864963</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23433,10 +23433,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>40.64330621514821</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23652,19 +23652,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23706,10 +23706,10 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>112.9489693570391</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>126.5688841976867</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23901,7 +23901,7 @@
         <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>0</v>
+        <v>32.89260457060021</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24135,19 +24135,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>62.35543909864957</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24186,10 +24186,10 @@
         <v>0</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>96.94647126760682</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>110.0033420516639</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24651,13 +24651,13 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>171.2522535850787</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>0</v>
       </c>
       <c r="Y28" t="n">
-        <v>23.83108638657316</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -24849,10 +24849,10 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>127.256811246707</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
         <v>0</v>
@@ -24888,10 +24888,10 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>111.7546635373313</v>
       </c>
       <c r="U31" t="n">
         <v>286.1844743892441</v>
@@ -25080,22 +25080,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>9.000252501565797</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,16 +25122,16 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25566,10 +25566,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,19 +25794,19 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>39.70888054695402</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>139.9994244361422</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26082,7 +26082,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>57.22910392194137</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="8">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>799776.7579630149</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="13">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>799776.7579630147</v>
+        <v>799776.7579630148</v>
       </c>
     </row>
     <row r="16">
@@ -26319,40 +26319,40 @@
         <v>636307.3716448194</v>
       </c>
       <c r="D2" t="n">
-        <v>636307.3716448195</v>
+        <v>636307.3716448194</v>
       </c>
       <c r="E2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="H2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
         <v>625538.614759755</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597551</v>
+        <v>625538.6147597546</v>
       </c>
       <c r="K2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="L2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="M2" t="n">
+        <v>625538.6147597549</v>
+      </c>
+      <c r="N2" t="n">
         <v>625538.6147597547</v>
       </c>
-      <c r="L2" t="n">
-        <v>625538.6147597552</v>
-      </c>
-      <c r="M2" t="n">
-        <v>625538.6147597547</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>625538.6147597549</v>
-      </c>
-      <c r="O2" t="n">
-        <v>625538.6147597547</v>
       </c>
       <c r="P2" t="n">
         <v>625538.6147597549</v>
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073551</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,13 +26383,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>3.581440068955999e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972773</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551187</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319405</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319404</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319407</v>
+        <v>92793.84288319403</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="F4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="G4" t="n">
         <v>13606.80811184274</v>
@@ -26441,22 +26441,22 @@
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="K4" t="n">
         <v>13606.80811184274</v>
       </c>
       <c r="L4" t="n">
+        <v>13606.80811184281</v>
+      </c>
+      <c r="M4" t="n">
         <v>13606.80811184275</v>
-      </c>
-      <c r="M4" t="n">
-        <v>13606.80811184269</v>
       </c>
       <c r="N4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184274</v>
+        <v>13606.80811184275</v>
       </c>
       <c r="P4" t="n">
         <v>13606.80811184275</v>
@@ -26527,43 +26527,43 @@
         <v>435579.588200232</v>
       </c>
       <c r="D6" t="n">
-        <v>435579.5882002325</v>
+        <v>435579.5882002321</v>
       </c>
       <c r="E6" t="n">
-        <v>185396.8150166494</v>
+        <v>185049.435762293</v>
       </c>
       <c r="F6" t="n">
-        <v>510809.2768240051</v>
+        <v>510461.897569648</v>
       </c>
       <c r="G6" t="n">
-        <v>510809.2768240051</v>
+        <v>510461.897569648</v>
       </c>
       <c r="H6" t="n">
-        <v>510809.2768240048</v>
+        <v>510461.897569648</v>
       </c>
       <c r="I6" t="n">
-        <v>510809.2768240051</v>
+        <v>510461.8975696482</v>
       </c>
       <c r="J6" t="n">
-        <v>293278.0744267279</v>
+        <v>292930.6951723704</v>
       </c>
       <c r="K6" t="n">
-        <v>510809.2768240049</v>
+        <v>510461.897569648</v>
       </c>
       <c r="L6" t="n">
-        <v>510809.2768240054</v>
+        <v>510461.897569648</v>
       </c>
       <c r="M6" t="n">
-        <v>425754.248888493</v>
+        <v>425406.8696341362</v>
       </c>
       <c r="N6" t="n">
-        <v>510809.276824005</v>
+        <v>510461.8975696479</v>
       </c>
       <c r="O6" t="n">
-        <v>510809.2768240049</v>
+        <v>510461.897569648</v>
       </c>
       <c r="P6" t="n">
-        <v>510809.2768240051</v>
+        <v>510461.897569648</v>
       </c>
     </row>
   </sheetData>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26807,22 +26807,22 @@
         <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27029,13 +27029,13 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022921</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973558</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27275,7 +27275,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>6.821210263296962e-13</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>303.9530049144608</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>377.138365294912</v>
       </c>
     </row>
     <row r="3">
@@ -27542,19 +27542,19 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>3.231643892896301</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>83.32522828944164</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>303.9530049144599</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>111.4435131414773</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27672,10 +27672,10 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>250.995171958902</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27794,7 +27794,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>75.90496054965102</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>69.34270184147189</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,10 +27836,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27873,7 +27873,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>36.33021218757163</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,25 +27903,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>109.1877617881759</v>
+        <v>71.00037073623326</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28013,25 +28013,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>13.40079581439466</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,16 +28058,16 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>88.75133939439164</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -28076,7 +28076,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28854,7 +28854,7 @@
         <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>-2.160049916710705e-12</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
@@ -29000,7 +29000,7 @@
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>7.164165557090503e-12</v>
+        <v>0</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -30039,7 +30039,7 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>-1.250555214937776e-12</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I8" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J8" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N8" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,46 +31594,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H9" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K9" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837935</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O9" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J10" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K10" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M10" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P10" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q10" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31837,13 +31837,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
         <v>638.8832749473072</v>
@@ -31855,16 +31855,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>424.0909547148531</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32089,19 +32089,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>322.6999460717714</v>
+        <v>463.9598929192557</v>
       </c>
       <c r="O15" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32314,31 +32314,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>227.8611086463993</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,37 +32554,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473073</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M21" t="n">
-        <v>414.644818552487</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,37 +32791,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,34 +33016,34 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>506.566534435233</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
         <v>139.9817740860215</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
-        <v>466.7546155663268</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,34 +33253,34 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>576.0573465136306</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
         <v>139.9817740860215</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,37 +33502,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>244.0266243181827</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,7 +33648,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33660,31 +33660,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,37 +33739,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067217</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,37 +33976,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>366.8427442359099</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175661</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,37 +34213,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>240.4469701760385</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,43 +34359,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067218</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,37 +34450,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>581.3243739860823</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N8" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K9" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M9" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004602</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P9" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L10" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M10" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N10" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P10" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35485,13 +35485,13 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
         <v>500.328895167433</v>
@@ -35503,16 +35503,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>281.4947102704086</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35737,19 +35737,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>191.358233988438</v>
+        <v>332.6181808359224</v>
       </c>
       <c r="O15" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35962,31 +35962,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>90.01966967204031</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,31 +36196,31 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>500.3288951674331</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M21" t="n">
-        <v>272.5107846304687</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36278,25 +36278,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
-        <v>295.6317733066322</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q22" t="n">
         <v>120.4022572998984</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,25 +36442,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,28 +36670,28 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>364.4325005132147</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
-        <v>285.7087110396405</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,19 +36916,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>433.4611020691861</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,25 +37153,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>101.8925903961643</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,34 +37381,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>439.1903400640639</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.5396902363158</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,25 +37627,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>235.5010321525766</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,25 +37864,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>101.8925903961643</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236315857</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,34 +38092,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>439.190340064064</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_31.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_21_31.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2467494.499791462</v>
+        <v>2469255.030094247</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283185</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,13 +658,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
@@ -679,7 +679,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -718,16 +718,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.099573361141621</v>
+        <v>318.4070179429959</v>
       </c>
     </row>
     <row r="3">
@@ -758,7 +758,7 @@
         <v>89.59687541851115</v>
       </c>
       <c r="I3" t="n">
-        <v>18.81721868247742</v>
+        <v>18.8172186824774</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -785,10 +785,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734098397</v>
+        <v>0.1429098734107401</v>
       </c>
       <c r="S3" t="n">
-        <v>128.1435076414547</v>
+        <v>128.1435076414546</v>
       </c>
       <c r="T3" t="n">
         <v>190.7165703189231</v>
@@ -837,7 +837,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -867,25 +867,25 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>76.22817515381249</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>203.1977700471494</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>77.97736515780183</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>410.9217256534534</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
@@ -949,7 +949,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -958,13 +958,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>325.9262959628997</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1101,7 +1101,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>13.02719212039631</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1110,13 +1110,13 @@
         <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>158.0933671656953</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -1135,7 +1135,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>223.6073936510863</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1150,10 +1150,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>38.18739105194257</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1308,7 +1308,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>131.3542190999261</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,22 +1338,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>171.7647334826864</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,25 +1527,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>40.3626499519043</v>
       </c>
       <c r="C13" t="n">
-        <v>104.8913819999782</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1815,10 +1815,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T16" t="n">
-        <v>160.1763464053459</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1903,7 +1903,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V17" t="n">
-        <v>327.7522584701346</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
         <v>349.240968717413</v>
@@ -2007,13 +2007,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="G19" t="n">
         <v>165.5241382922688</v>
@@ -2022,7 +2022,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,16 +2049,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
-        <v>253.2918698186439</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
         <v>252.137643323828</v>
@@ -2067,7 +2067,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
         <v>218.5846533520948</v>
@@ -2137,7 +2137,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2250,13 +2250,13 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,13 +2481,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,16 +2523,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>172.0260335000785</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2566,7 +2566,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
         <v>409.8033385187866</v>
@@ -2605,7 +2605,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2718,10 +2718,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2760,16 +2760,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>114.9322208041654</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2958,19 +2958,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,22 +2997,22 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
-        <v>105.6507867899569</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>286.522998336591</v>
+        <v>220.9731342426608</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3043,7 +3043,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3204,7 +3204,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>83.06560892428169</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,10 +3429,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
@@ -3441,7 +3441,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428168</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>35.41770597126747</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3681,7 +3681,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,7 +3717,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>147.6895341487364</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3906,19 +3906,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>100.5858322992699</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3951,10 +3951,10 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>172.026033500079</v>
       </c>
       <c r="V43" t="n">
         <v>252.137643323828</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4152,7 +4152,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>83.06560892428168</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>9.146142788179931</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4306,10 +4306,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1689.318139675982</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C2" t="n">
-        <v>1320.35562273557</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D2" t="n">
         <v>1320.35562273557</v>
@@ -4330,10 +4330,10 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810555</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4342,10 +4342,10 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P2" t="n">
         <v>3018.302393296686</v>
@@ -4366,16 +4366,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="Y2" t="n">
-        <v>1689.318139675982</v>
+        <v>2434.183678346854</v>
       </c>
     </row>
     <row r="3">
@@ -4409,28 +4409,28 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228008</v>
       </c>
       <c r="K3" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031481</v>
       </c>
       <c r="L3" t="n">
-        <v>765.1517452158132</v>
+        <v>765.1517452158135</v>
       </c>
       <c r="M3" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O3" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P3" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533341</v>
+        <v>2565.053542533342</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125856</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1091.613680441807</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C4" t="n">
-        <v>922.6774975139006</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D4" t="n">
-        <v>772.5608581015648</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E4" t="n">
-        <v>624.6477645191717</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F4" t="n">
-        <v>477.7578170212613</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G4" t="n">
-        <v>310.0549803959803</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4491,16 +4491,16 @@
         <v>111.634748879119</v>
       </c>
       <c r="K4" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279955</v>
       </c>
       <c r="L4" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764916</v>
       </c>
       <c r="M4" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760407</v>
       </c>
       <c r="N4" t="n">
-        <v>1317.747152581905</v>
+        <v>1317.747152581906</v>
       </c>
       <c r="O4" t="n">
         <v>1617.076751502319</v>
@@ -4515,25 +4515,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1735.60866391532</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1658.610507194297</v>
       </c>
       <c r="U4" t="n">
-        <v>1927.294548088493</v>
+        <v>1658.610507194297</v>
       </c>
       <c r="V4" t="n">
-        <v>1927.294548088493</v>
+        <v>1403.92601898841</v>
       </c>
       <c r="W4" t="n">
-        <v>1722.044275313594</v>
+        <v>1403.92601898841</v>
       </c>
       <c r="X4" t="n">
-        <v>1494.054724415577</v>
+        <v>1175.936468090393</v>
       </c>
       <c r="Y4" t="n">
-        <v>1273.262145272047</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="5">
@@ -4543,19 +4543,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2038.144201386631</v>
+        <v>1151.298377994912</v>
       </c>
       <c r="C5" t="n">
-        <v>1669.18168444622</v>
+        <v>782.3358610545008</v>
       </c>
       <c r="D5" t="n">
-        <v>1310.915985839469</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>424.0701624477504</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
         <v>406.0926155839475</v>
@@ -4567,19 +4567,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912092</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L5" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O5" t="n">
         <v>2623.528026939508</v>
@@ -4597,22 +4597,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450753</v>
+        <v>2630.721789066532</v>
       </c>
       <c r="W5" t="n">
-        <v>2424.744041450753</v>
+        <v>2301.503308295926</v>
       </c>
       <c r="X5" t="n">
-        <v>2424.744041450753</v>
+        <v>1928.037550034846</v>
       </c>
       <c r="Y5" t="n">
-        <v>2424.744041450753</v>
+        <v>1537.898218059034</v>
       </c>
     </row>
     <row r="6">
@@ -4701,22 +4701,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>994.2880032601528</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>825.3518203322459</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>675.2351809199101</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>527.322087337517</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>380.4321398396066</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G7" t="n">
-        <v>212.7293032143256</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
         <v>66.51211643218342</v>
@@ -4749,28 +4749,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1914.135768168901</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1914.135768168901</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1914.135768168901</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U7" t="n">
-        <v>1914.135768168901</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="V7" t="n">
-        <v>1914.135768168901</v>
+        <v>1638.191681214136</v>
       </c>
       <c r="W7" t="n">
-        <v>1624.71859813194</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>1396.729047233923</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>1175.936468090393</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,34 +4780,34 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1976.204921733553</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810557</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329465</v>
@@ -4816,40 +4816,40 @@
         <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
         <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
         <v>3325.605821609171</v>
       </c>
       <c r="S8" t="n">
-        <v>3287.032699334482</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T8" t="n">
-        <v>3287.032699334482</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="U8" t="n">
-        <v>3033.502222608318</v>
+        <v>2961.784676410102</v>
       </c>
       <c r="V8" t="n">
-        <v>2702.439335264748</v>
+        <v>2630.721789066531</v>
       </c>
       <c r="W8" t="n">
-        <v>2349.670679994633</v>
+        <v>2277.953133796417</v>
       </c>
       <c r="X8" t="n">
-        <v>1976.204921733553</v>
+        <v>1904.487375535337</v>
       </c>
       <c r="Y8" t="n">
-        <v>1976.204921733553</v>
+        <v>1904.487375535337</v>
       </c>
     </row>
     <row r="9">
@@ -4874,31 +4874,31 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
         <v>2407.411984886741</v>
@@ -4938,40 +4938,40 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>980.7518458718754</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>811.8156629439685</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>661.6990235316327</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>513.7859299492396</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>366.8959824513292</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>199.1931458260482</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,31 +4983,31 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1837.46409084602</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1645.778206672847</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1424.011591242373</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="V10" t="n">
-        <v>1672.610059882606</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="W10" t="n">
-        <v>1383.192889845645</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="X10" t="n">
-        <v>1383.192889845645</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>1162.400310702115</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5032,13 +5032,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
@@ -5077,13 +5077,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5175,22 +5175,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400712</v>
+        <v>721.7774158311365</v>
       </c>
       <c r="C13" t="n">
-        <v>407.9027098310023</v>
+        <v>552.8412329032296</v>
       </c>
       <c r="D13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>407.9027098310023</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5223,28 +5223,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5269,16 +5269,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
@@ -5287,13 +5287,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
         <v>4194.413870694707</v>
@@ -5369,7 +5369,7 @@
         <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5463,7 +5463,7 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T16" t="n">
         <v>2035.268256189238</v>
@@ -5506,13 +5506,13 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111715</v>
@@ -5521,7 +5521,7 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.55866301478</v>
@@ -5551,13 +5551,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1016.58045691144</v>
+        <v>741.8431516380886</v>
       </c>
       <c r="C19" t="n">
-        <v>847.6442739835331</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="D19" t="n">
-        <v>697.5276345711974</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="E19" t="n">
-        <v>549.6145409888043</v>
+        <v>572.9069687101817</v>
       </c>
       <c r="F19" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2446.96308358026</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>2191.112710026075</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1936.428221820188</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1647.011051783227</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1419.02150088521</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="Y19" t="n">
-        <v>1198.22892174168</v>
+        <v>923.4916164683283</v>
       </c>
     </row>
     <row r="20">
@@ -5740,16 +5740,16 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111715</v>
@@ -5758,13 +5758,13 @@
         <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6065,13 +6065,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1098.667160263527</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D25" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E25" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.96308358026</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.96308358026</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>2446.96308358026</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>2273.199413378161</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>2018.514925172274</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1729.097755135313</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>1501.108204237296</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>1280.315625093766</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6208,10 +6208,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
         <v>793.7736536168611</v>
@@ -6220,34 +6220,34 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,19 +6360,19 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>869.6905094135296</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>700.7543264856228</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D28" t="n">
-        <v>550.637687073287</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S28" t="n">
-        <v>2379.917379832663</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2160.315914855604</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>2044.222762528164</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1789.538274322277</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1500.121104285317</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>1272.131553387299</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>1051.338974243769</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6439,46 +6439,46 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J29" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>580.0655846733346</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2379.917379832663</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>2273.199413378161</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>2273.199413378161</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>2018.514925172274</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1729.097755135313</v>
+        <v>1210.496179545122</v>
       </c>
       <c r="X31" t="n">
-        <v>1501.108204237296</v>
+        <v>982.5066286471044</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>761.7140495035743</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K32" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,25 +6773,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273902</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G34" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V34" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W34" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X34" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y34" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="35">
@@ -6925,31 +6925,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
         <v>3640.422291068009</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,22 +7071,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121643</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121643</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270443</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
         <v>93.81666304797187</v>
@@ -7095,52 +7095,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2411.187623003223</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.422291068009</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L39" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M39" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,76 +7308,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1828.279732885522</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1573.595244679635</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1284.178074642674</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7387,43 +7387,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.422291068009</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L42" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M42" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>763.7541388327643</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C43" t="n">
-        <v>594.8179559048574</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D43" t="n">
-        <v>444.7013164925216</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E43" t="n">
-        <v>444.7013164925216</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F43" t="n">
-        <v>444.7013164925216</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G43" t="n">
-        <v>277.5052172074016</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="T43" t="n">
-        <v>2227.361618603201</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="U43" t="n">
-        <v>1938.286391947399</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V43" t="n">
-        <v>1683.601903741512</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W43" t="n">
-        <v>1394.184733704551</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X43" t="n">
-        <v>1166.195182806534</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y43" t="n">
-        <v>945.402603663004</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192598</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,13 +7660,13 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q44" t="n">
         <v>4562.265728852255</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="45">
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516142</v>
+        <v>280.8495004245705</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>776.1751066403293</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>177.7213185270443</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
         <v>93.81666304797187</v>
@@ -7806,52 +7806,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R46" t="n">
-        <v>2379.917379832663</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -8081,7 +8081,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>-9.481304630298837e-13</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -23415,25 +23415,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="C13" t="n">
-        <v>62.35543909864963</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23463,7 +23463,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -23703,10 +23703,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T16" t="n">
-        <v>57.22910392194237</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23895,13 +23895,13 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>58.20633287440185</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23910,7 +23910,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,16 +23937,16 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
-        <v>32.89260457060021</v>
+        <v>0</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -23955,7 +23955,7 @@
         <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
         <v>0</v>
@@ -24138,13 +24138,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>62.35543909864957</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24174,7 +24174,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24369,13 +24369,13 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,16 +24411,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012169</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>114.1584408891656</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24606,10 +24606,10 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24621,7 +24621,7 @@
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,16 +24648,16 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>171.2522535850787</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24846,19 +24846,19 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
-        <v>111.7546635373313</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>65.54986409393021</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25128,7 +25128,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,10 +25317,10 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
@@ -25329,10 +25329,10 @@
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194221</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,10 +25359,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>30.95754073885419</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25569,7 +25569,7 @@
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25596,7 +25596,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S40" t="n">
         <v>0</v>
@@ -25605,7 +25605,7 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>138.4949402405077</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25794,16 +25794,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>39.70888054695402</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -25833,16 +25833,16 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>114.1584408891651</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -26040,10 +26040,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>57.22910392194221</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,7 +26070,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="10">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>799776.7579630148</v>
+        <v>799776.7579630147</v>
       </c>
     </row>
     <row r="12">
@@ -26313,7 +26313,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>636307.37164482</v>
+        <v>636307.3716448196</v>
       </c>
       <c r="C2" t="n">
         <v>636307.3716448194</v>
@@ -26325,19 +26325,19 @@
         <v>625538.6147597549</v>
       </c>
       <c r="F2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="G2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="H2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="I2" t="n">
-        <v>625538.614759755</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="J2" t="n">
-        <v>625538.6147597546</v>
+        <v>625538.6147597547</v>
       </c>
       <c r="K2" t="n">
         <v>625538.6147597549</v>
@@ -26346,16 +26346,16 @@
         <v>625538.6147597549</v>
       </c>
       <c r="M2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
       <c r="N2" t="n">
-        <v>625538.6147597547</v>
+        <v>625538.614759755</v>
       </c>
       <c r="O2" t="n">
         <v>625538.6147597549</v>
       </c>
       <c r="P2" t="n">
-        <v>625538.6147597549</v>
+        <v>625538.614759755</v>
       </c>
     </row>
     <row r="3">
@@ -26374,7 +26374,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073553</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26386,7 +26386,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
         <v>217531.2023972775</v>
@@ -26398,7 +26398,7 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551178</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,13 +26417,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>92793.84288319405</v>
+        <v>92793.84288319398</v>
       </c>
       <c r="C4" t="n">
-        <v>92793.84288319404</v>
+        <v>92793.84288319401</v>
       </c>
       <c r="D4" t="n">
-        <v>92793.84288319403</v>
+        <v>92793.84288319407</v>
       </c>
       <c r="E4" t="n">
         <v>13606.80811184274</v>
@@ -26441,25 +26441,25 @@
         <v>13606.80811184275</v>
       </c>
       <c r="J4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="K4" t="n">
+        <v>13606.80811184275</v>
+      </c>
+      <c r="L4" t="n">
         <v>13606.80811184274</v>
-      </c>
-      <c r="K4" t="n">
-        <v>13606.80811184274</v>
-      </c>
-      <c r="L4" t="n">
-        <v>13606.80811184281</v>
       </c>
       <c r="M4" t="n">
         <v>13606.80811184275</v>
       </c>
       <c r="N4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="O4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
       <c r="P4" t="n">
-        <v>13606.80811184275</v>
+        <v>13606.80811184274</v>
       </c>
     </row>
     <row r="5">
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-893165.15752736</v>
+        <v>-893165.1575273605</v>
       </c>
       <c r="C6" t="n">
-        <v>435579.588200232</v>
+        <v>435579.5882002324</v>
       </c>
       <c r="D6" t="n">
-        <v>435579.5882002321</v>
+        <v>435579.5882002322</v>
       </c>
       <c r="E6" t="n">
-        <v>185049.435762293</v>
+        <v>185362.077091214</v>
       </c>
       <c r="F6" t="n">
-        <v>510461.897569648</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="G6" t="n">
-        <v>510461.897569648</v>
+        <v>510774.5388985692</v>
       </c>
       <c r="H6" t="n">
-        <v>510461.897569648</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="I6" t="n">
-        <v>510461.8975696482</v>
+        <v>510774.5388985691</v>
       </c>
       <c r="J6" t="n">
-        <v>292930.6951723704</v>
+        <v>293243.3365012917</v>
       </c>
       <c r="K6" t="n">
-        <v>510461.897569648</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="L6" t="n">
-        <v>510461.897569648</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="M6" t="n">
-        <v>425406.8696341362</v>
+        <v>425719.5109630576</v>
       </c>
       <c r="N6" t="n">
-        <v>510461.8975696479</v>
+        <v>510774.5388985694</v>
       </c>
       <c r="O6" t="n">
-        <v>510461.897569648</v>
+        <v>510774.5388985693</v>
       </c>
       <c r="P6" t="n">
-        <v>510461.897569648</v>
+        <v>510774.5388985694</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>1089.776700593298</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="C4" t="n">
+        <v>831.4014554022928</v>
+      </c>
+      <c r="D4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022926</v>
-      </c>
-      <c r="D4" t="n">
-        <v>831.4014554022929</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26819,7 +26819,7 @@
         <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26959,7 +26959,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1089.776700593298</v>
+        <v>1089.776700593299</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
@@ -26968,7 +26968,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483757</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26980,7 +26980,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27011,7 +27011,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27020,7 +27020,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27044,7 +27044,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973555</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022928</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27266,7 +27266,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,13 +27378,13 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -27438,16 +27438,16 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>377.138365294912</v>
+        <v>67.83092071305771</v>
       </c>
     </row>
     <row r="3">
@@ -27557,7 +27557,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,28 +27584,28 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004732</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>143.3207741223567</v>
       </c>
       <c r="U4" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>83.32522828944164</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27624,13 +27624,13 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>303.9530049144599</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -27669,7 +27669,7 @@
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
@@ -27678,13 +27678,13 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>23.31467275451331</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27791,7 +27791,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>96.35242040983809</v>
@@ -27821,7 +27821,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>75.90496054965102</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
@@ -27830,13 +27830,13 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>128.4296311708957</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>141.6654981199213</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27870,7 +27870,7 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>71.00037073623326</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -28028,10 +28028,10 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>13.40079581439466</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,22 +28058,22 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2118382056129</v>
+        <v>114.4471047229264</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -29763,7 +29763,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -31041,7 +31041,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681599</v>
       </c>
       <c r="H2" t="n">
         <v>44.86703772844668</v>
@@ -31050,40 +31050,40 @@
         <v>168.89895979748</v>
       </c>
       <c r="J2" t="n">
-        <v>371.8329054953988</v>
+        <v>371.832905495399</v>
       </c>
       <c r="K2" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003812</v>
       </c>
       <c r="L2" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623195</v>
       </c>
       <c r="M2" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574996</v>
       </c>
       <c r="N2" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095025</v>
       </c>
       <c r="O2" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099061</v>
       </c>
       <c r="P2" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746415</v>
       </c>
       <c r="Q2" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781691</v>
       </c>
       <c r="R2" t="n">
-        <v>275.1987363563569</v>
+        <v>275.198736356357</v>
       </c>
       <c r="S2" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806954</v>
       </c>
       <c r="T2" t="n">
-        <v>19.1778794245112</v>
+        <v>19.17787942451121</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345279</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,46 +31120,46 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502567</v>
       </c>
       <c r="H3" t="n">
-        <v>22.63856881798531</v>
+        <v>22.63856881798532</v>
       </c>
       <c r="I3" t="n">
-        <v>80.70516131752258</v>
+        <v>80.7051613175226</v>
       </c>
       <c r="J3" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026439</v>
       </c>
       <c r="K3" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353158</v>
       </c>
       <c r="L3" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138797</v>
       </c>
       <c r="M3" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233476</v>
       </c>
       <c r="N3" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O3" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970251</v>
       </c>
       <c r="P3" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002928</v>
       </c>
       <c r="Q3" t="n">
         <v>299.2156706987487</v>
       </c>
       <c r="R3" t="n">
-        <v>145.5365940905541</v>
+        <v>145.5365940905542</v>
       </c>
       <c r="S3" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238317</v>
       </c>
       <c r="T3" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898499</v>
       </c>
       <c r="U3" t="n">
         <v>0.1542136840462215</v>
@@ -31202,43 +31202,43 @@
         <v>1.965171099430538</v>
       </c>
       <c r="H4" t="n">
-        <v>17.47215759311879</v>
+        <v>17.4721575931188</v>
       </c>
       <c r="I4" t="n">
-        <v>59.09805451742019</v>
+        <v>59.0980545174202</v>
       </c>
       <c r="J4" t="n">
         <v>138.937596729739</v>
       </c>
       <c r="K4" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702025</v>
       </c>
       <c r="L4" t="n">
         <v>292.167346909882</v>
       </c>
       <c r="M4" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316433</v>
       </c>
       <c r="N4" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883116</v>
       </c>
       <c r="O4" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086002</v>
       </c>
       <c r="P4" t="n">
-        <v>237.6785118802169</v>
+        <v>237.678511880217</v>
       </c>
       <c r="Q4" t="n">
-        <v>164.556281789588</v>
+        <v>164.5562817895881</v>
       </c>
       <c r="R4" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712217</v>
       </c>
       <c r="S4" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553037</v>
       </c>
       <c r="T4" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112298</v>
       </c>
       <c r="U4" t="n">
         <v>0.1071911508780295</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -32089,10 +32089,10 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>463.9598929192557</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32478,7 +32478,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162566</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
         <v>965.6463440175675</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,43 +33174,43 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,31 +33253,31 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,7 +33411,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33423,31 +33423,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,31 +33490,31 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,31 +33727,31 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,31 +33964,31 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34131,34 +34131,34 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663268</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,31 +34201,31 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J42" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669214</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043729</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S44" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,31 +34438,31 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H45" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422585</v>
+        <v>326.7634969305192</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34698,31 +34698,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687127</v>
       </c>
       <c r="K2" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554006</v>
       </c>
       <c r="L2" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923323</v>
       </c>
       <c r="M2" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302269</v>
       </c>
       <c r="N2" t="n">
         <v>552.3018354129115</v>
       </c>
       <c r="O2" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882193</v>
       </c>
       <c r="P2" t="n">
-        <v>398.7619862193719</v>
+        <v>398.761986219372</v>
       </c>
       <c r="Q2" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037196</v>
       </c>
       <c r="R2" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222484</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34777,25 +34777,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597716</v>
       </c>
       <c r="K3" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609568</v>
       </c>
       <c r="L3" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340056</v>
       </c>
       <c r="M3" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013293</v>
       </c>
       <c r="N3" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O3" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525807</v>
       </c>
       <c r="P3" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859626</v>
       </c>
       <c r="Q3" t="n">
         <v>159.2338966127272</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306625</v>
       </c>
       <c r="K4" t="n">
         <v>206.0476595443196</v>
       </c>
       <c r="L4" t="n">
-        <v>319.7573721701981</v>
+        <v>319.7573721701982</v>
       </c>
       <c r="M4" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934839</v>
       </c>
       <c r="N4" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675402</v>
       </c>
       <c r="O4" t="n">
         <v>302.3531302226398</v>
       </c>
       <c r="P4" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451105</v>
       </c>
       <c r="Q4" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789368</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35737,10 +35737,10 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>332.6181808359224</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -36126,7 +36126,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,25 +36907,25 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,25 +37144,25 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,25 +37381,25 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J41" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396405</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,25 +37855,25 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924719</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>188.9220579561602</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K46" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
